--- a/Planilhas/Trabalho RACA NACIONAL.xlsx
+++ b/Planilhas/Trabalho RACA NACIONAL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -501,8 +501,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>45906</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45906</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -517,14 +519,20 @@
       <c r="G2" t="n">
         <v>1</v>
       </c>
-      <c r="H2" t="n">
-        <v>42845</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3062</v>
-      </c>
-      <c r="J2" t="n">
-        <v>27330</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>42845</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>3062</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>27330</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -543,8 +551,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>46272</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46272</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -559,14 +569,20 @@
       <c r="G3" t="n">
         <v>2</v>
       </c>
-      <c r="H3" t="n">
-        <v>43401</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2871</v>
-      </c>
-      <c r="J3" t="n">
-        <v>26251</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>43401</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2871</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>26251</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -585,8 +601,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>46189</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46189</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -601,14 +619,20 @@
       <c r="G4" t="n">
         <v>3</v>
       </c>
-      <c r="H4" t="n">
-        <v>43537</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2652</v>
-      </c>
-      <c r="J4" t="n">
-        <v>26159</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>43537</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2652</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>26159</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -627,8 +651,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>45899</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>45899</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -643,14 +669,20 @@
       <c r="G5" t="n">
         <v>4</v>
       </c>
-      <c r="H5" t="n">
-        <v>43390</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2509</v>
-      </c>
-      <c r="J5" t="n">
-        <v>26130</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>43390</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2509</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>26130</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -669,8 +701,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>45562</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>45562</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -685,14 +719,20 @@
       <c r="G6" t="n">
         <v>1</v>
       </c>
-      <c r="H6" t="n">
-        <v>42670</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2892</v>
-      </c>
-      <c r="J6" t="n">
-        <v>26194</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>42670</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2892</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>26194</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -711,8 +751,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>46118</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>46118</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -727,14 +769,20 @@
       <c r="G7" t="n">
         <v>2</v>
       </c>
-      <c r="H7" t="n">
-        <v>43349</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2769</v>
-      </c>
-      <c r="J7" t="n">
-        <v>26080</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>43349</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2769</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>26080</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -753,8 +801,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>46395</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>46395</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -769,14 +819,20 @@
       <c r="G8" t="n">
         <v>3</v>
       </c>
-      <c r="H8" t="n">
-        <v>43753</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2642</v>
-      </c>
-      <c r="J8" t="n">
-        <v>26611</v>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>43753</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2642</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>26611</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -795,8 +851,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>46040</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>46040</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -811,14 +869,20 @@
       <c r="G9" t="n">
         <v>4</v>
       </c>
-      <c r="H9" t="n">
-        <v>43714</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2326</v>
-      </c>
-      <c r="J9" t="n">
-        <v>26905</v>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>43714</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2326</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>26905</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -837,8 +901,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>46095</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>46095</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -853,14 +919,20 @@
       <c r="G10" t="n">
         <v>1</v>
       </c>
-      <c r="H10" t="n">
-        <v>43399</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2696</v>
-      </c>
-      <c r="J10" t="n">
-        <v>27188</v>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>43399</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2696</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>27188</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -879,8 +951,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>46175</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>46175</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -895,14 +969,20 @@
       <c r="G11" t="n">
         <v>2</v>
       </c>
-      <c r="H11" t="n">
-        <v>43600</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2575</v>
-      </c>
-      <c r="J11" t="n">
-        <v>27232</v>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>43600</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2575</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>27232</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -921,8 +1001,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>45735</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>45735</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -937,14 +1019,20 @@
       <c r="G12" t="n">
         <v>3</v>
       </c>
-      <c r="H12" t="n">
-        <v>43158</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2577</v>
-      </c>
-      <c r="J12" t="n">
-        <v>26960</v>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>43158</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2577</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>26960</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -963,8 +1051,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>45890</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>45890</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -979,14 +1069,20 @@
       <c r="G13" t="n">
         <v>4</v>
       </c>
-      <c r="H13" t="n">
-        <v>43400</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2490</v>
-      </c>
-      <c r="J13" t="n">
-        <v>26958</v>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>43400</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2490</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>26958</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1005,8 +1101,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>45728</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>45728</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1021,14 +1119,20 @@
       <c r="G14" t="n">
         <v>1</v>
       </c>
-      <c r="H14" t="n">
-        <v>42744</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2984</v>
-      </c>
-      <c r="J14" t="n">
-        <v>26792</v>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>42744</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2984</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>26792</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1047,8 +1151,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>46450</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>46450</t>
+        </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1063,14 +1169,20 @@
       <c r="G15" t="n">
         <v>2</v>
       </c>
-      <c r="H15" t="n">
-        <v>43261</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3189</v>
-      </c>
-      <c r="J15" t="n">
-        <v>26899</v>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>43261</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>3189</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>26899</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1089,8 +1201,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>46560</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>46560</t>
+        </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1105,14 +1219,20 @@
       <c r="G16" t="n">
         <v>3</v>
       </c>
-      <c r="H16" t="n">
-        <v>43144</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3416</v>
-      </c>
-      <c r="J16" t="n">
-        <v>26874</v>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>43144</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>3416</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>26874</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1131,8 +1251,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>46801</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>46801</t>
+        </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1147,14 +1269,20 @@
       <c r="G17" t="n">
         <v>4</v>
       </c>
-      <c r="H17" t="n">
-        <v>43306</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3494</v>
-      </c>
-      <c r="J17" t="n">
-        <v>26672</v>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>43306</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>3494</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>26672</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1173,8 +1301,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>46456</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>46456</t>
+        </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1189,14 +1319,20 @@
       <c r="G18" t="n">
         <v>1</v>
       </c>
-      <c r="H18" t="n">
-        <v>42314</v>
-      </c>
-      <c r="I18" t="n">
-        <v>4142</v>
-      </c>
-      <c r="J18" t="n">
-        <v>26554</v>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>42314</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>4142</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>26554</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1215,8 +1351,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>46901</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>46901</t>
+        </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1231,14 +1369,20 @@
       <c r="G19" t="n">
         <v>2</v>
       </c>
-      <c r="H19" t="n">
-        <v>42525</v>
-      </c>
-      <c r="I19" t="n">
-        <v>4376</v>
-      </c>
-      <c r="J19" t="n">
-        <v>26529</v>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>42525</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>4376</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>26529</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1257,8 +1401,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>46371</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>46371</t>
+        </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1273,14 +1419,20 @@
       <c r="G20" t="n">
         <v>3</v>
       </c>
-      <c r="H20" t="n">
-        <v>41895</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4477</v>
-      </c>
-      <c r="J20" t="n">
-        <v>26698</v>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>41895</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>4477</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>26698</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1299,8 +1451,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>45951</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>45951</t>
+        </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1315,14 +1469,20 @@
       <c r="G21" t="n">
         <v>4</v>
       </c>
-      <c r="H21" t="n">
-        <v>41538</v>
-      </c>
-      <c r="I21" t="n">
-        <v>4412</v>
-      </c>
-      <c r="J21" t="n">
-        <v>25991</v>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>41538</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>4412</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>25991</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1341,8 +1501,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>46136</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>46136</t>
+        </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1357,14 +1519,20 @@
       <c r="G22" t="n">
         <v>1</v>
       </c>
-      <c r="H22" t="n">
-        <v>41067</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5069</v>
-      </c>
-      <c r="J22" t="n">
-        <v>25853</v>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>41067</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>5069</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>25853</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1383,8 +1551,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>46125</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>46125</t>
+        </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1399,14 +1569,20 @@
       <c r="G23" t="n">
         <v>2</v>
       </c>
-      <c r="H23" t="n">
-        <v>41332</v>
-      </c>
-      <c r="I23" t="n">
-        <v>4793</v>
-      </c>
-      <c r="J23" t="n">
-        <v>25864</v>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>41332</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>4793</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>25864</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1425,8 +1601,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>46485</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>46485</t>
+        </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1441,14 +1619,20 @@
       <c r="G24" t="n">
         <v>3</v>
       </c>
-      <c r="H24" t="n">
-        <v>41857</v>
-      </c>
-      <c r="I24" t="n">
-        <v>4628</v>
-      </c>
-      <c r="J24" t="n">
-        <v>25793</v>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>41857</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>4628</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>25793</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1467,8 +1651,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>46104</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>46104</t>
+        </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1483,14 +1669,20 @@
       <c r="G25" t="n">
         <v>4</v>
       </c>
-      <c r="H25" t="n">
-        <v>41696</v>
-      </c>
-      <c r="I25" t="n">
-        <v>4408</v>
-      </c>
-      <c r="J25" t="n">
-        <v>25501</v>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>41696</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>4408</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>25501</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1509,8 +1701,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>45837</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>45837</t>
+        </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1525,14 +1719,20 @@
       <c r="G26" t="n">
         <v>1</v>
       </c>
-      <c r="H26" t="n">
-        <v>40976</v>
-      </c>
-      <c r="I26" t="n">
-        <v>4861</v>
-      </c>
-      <c r="J26" t="n">
-        <v>25599</v>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>40976</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>4861</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>25599</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1551,8 +1751,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>45762</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>45762</t>
+        </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1567,14 +1769,20 @@
       <c r="G27" t="n">
         <v>2</v>
       </c>
-      <c r="H27" t="n">
-        <v>41184</v>
-      </c>
-      <c r="I27" t="n">
-        <v>4578</v>
-      </c>
-      <c r="J27" t="n">
-        <v>25793</v>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>41184</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>4578</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>25793</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -1593,8 +1801,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>46273</v>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>46273</t>
+        </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1609,14 +1819,20 @@
       <c r="G28" t="n">
         <v>3</v>
       </c>
-      <c r="H28" t="n">
-        <v>41897</v>
-      </c>
-      <c r="I28" t="n">
-        <v>4377</v>
-      </c>
-      <c r="J28" t="n">
-        <v>25602</v>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>41897</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>4377</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>25602</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1635,8 +1851,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>45984</v>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>45984</t>
+        </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1651,14 +1869,20 @@
       <c r="G29" t="n">
         <v>4</v>
       </c>
-      <c r="H29" t="n">
-        <v>41702</v>
-      </c>
-      <c r="I29" t="n">
-        <v>4282</v>
-      </c>
-      <c r="J29" t="n">
-        <v>25614</v>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>41702</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>4282</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>25614</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -1677,8 +1901,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>46318</v>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>46318</t>
+        </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1693,14 +1919,20 @@
       <c r="G30" t="n">
         <v>1</v>
       </c>
-      <c r="H30" t="n">
-        <v>41559</v>
-      </c>
-      <c r="I30" t="n">
-        <v>4759</v>
-      </c>
-      <c r="J30" t="n">
-        <v>25440</v>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>41559</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>4759</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>25440</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -1719,8 +1951,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>46613</v>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>46613</t>
+        </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1735,14 +1969,20 @@
       <c r="G31" t="n">
         <v>2</v>
       </c>
-      <c r="H31" t="n">
-        <v>42137</v>
-      </c>
-      <c r="I31" t="n">
-        <v>4477</v>
-      </c>
-      <c r="J31" t="n">
-        <v>25291</v>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>42137</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>4477</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>25291</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -1761,8 +2001,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>46468</v>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>46468</t>
+        </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1777,14 +2019,20 @@
       <c r="G32" t="n">
         <v>3</v>
       </c>
-      <c r="H32" t="n">
-        <v>42154</v>
-      </c>
-      <c r="I32" t="n">
-        <v>4314</v>
-      </c>
-      <c r="J32" t="n">
-        <v>25567</v>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>42154</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>4314</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>25567</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -1803,8 +2051,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>46030</v>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>46030</t>
+        </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1819,14 +2069,20 @@
       <c r="G33" t="n">
         <v>4</v>
       </c>
-      <c r="H33" t="n">
-        <v>41999</v>
-      </c>
-      <c r="I33" t="n">
-        <v>4032</v>
-      </c>
-      <c r="J33" t="n">
-        <v>25121</v>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>41999</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>4032</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>25121</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -1845,8 +2101,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>46058</v>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>46058</t>
+        </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1861,14 +2119,20 @@
       <c r="G34" t="n">
         <v>1</v>
       </c>
-      <c r="H34" t="n">
-        <v>41512</v>
-      </c>
-      <c r="I34" t="n">
-        <v>4546</v>
-      </c>
-      <c r="J34" t="n">
-        <v>26201</v>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>41512</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>4546</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>26201</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -1887,8 +2151,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>43573</v>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>43573</t>
+        </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1903,14 +2169,20 @@
       <c r="G35" t="n">
         <v>2</v>
       </c>
-      <c r="H35" t="n">
-        <v>38959</v>
-      </c>
-      <c r="I35" t="n">
-        <v>4614</v>
-      </c>
-      <c r="J35" t="n">
-        <v>30262</v>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>38959</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>4614</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>30262</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -1929,8 +2201,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>43371</v>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>43371</t>
+        </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1945,14 +2219,20 @@
       <c r="G36" t="n">
         <v>3</v>
       </c>
-      <c r="H36" t="n">
-        <v>38154</v>
-      </c>
-      <c r="I36" t="n">
-        <v>5217</v>
-      </c>
-      <c r="J36" t="n">
-        <v>30889</v>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>38154</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>5217</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>30889</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -1971,8 +2251,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>45246</v>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>45246</t>
+        </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1987,14 +2269,20 @@
       <c r="G37" t="n">
         <v>4</v>
       </c>
-      <c r="H37" t="n">
-        <v>39983</v>
-      </c>
-      <c r="I37" t="n">
-        <v>5263</v>
-      </c>
-      <c r="J37" t="n">
-        <v>29954</v>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>39983</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>5263</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>29954</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -2013,8 +2301,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>45249</v>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>45249</t>
+        </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2029,14 +2319,20 @@
       <c r="G38" t="n">
         <v>1</v>
       </c>
-      <c r="H38" t="n">
-        <v>39792</v>
-      </c>
-      <c r="I38" t="n">
-        <v>5456</v>
-      </c>
-      <c r="J38" t="n">
-        <v>30095</v>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>39792</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>5456</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>30095</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -2055,8 +2351,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>45961</v>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>45961</t>
+        </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2071,14 +2369,20 @@
       <c r="G39" t="n">
         <v>2</v>
       </c>
-      <c r="H39" t="n">
-        <v>40563</v>
-      </c>
-      <c r="I39" t="n">
-        <v>5398</v>
-      </c>
-      <c r="J39" t="n">
-        <v>29120</v>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>40563</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>5398</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>29120</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -2097,8 +2401,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D40" t="n">
-        <v>46539</v>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>46539</t>
+        </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2113,14 +2419,20 @@
       <c r="G40" t="n">
         <v>3</v>
       </c>
-      <c r="H40" t="n">
-        <v>41740</v>
-      </c>
-      <c r="I40" t="n">
-        <v>4799</v>
-      </c>
-      <c r="J40" t="n">
-        <v>28241</v>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>41740</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>4799</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>28241</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -2139,8 +2451,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D41" t="n">
-        <v>47083</v>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>47083</t>
+        </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2155,14 +2469,20 @@
       <c r="G41" t="n">
         <v>4</v>
       </c>
-      <c r="H41" t="n">
-        <v>42834</v>
-      </c>
-      <c r="I41" t="n">
-        <v>4249</v>
-      </c>
-      <c r="J41" t="n">
-        <v>27546</v>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>42834</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>4249</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>27546</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -2181,8 +2501,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>46744</v>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>46744</t>
+        </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2197,14 +2519,20 @@
       <c r="G42" t="n">
         <v>1</v>
       </c>
-      <c r="H42" t="n">
-        <v>42591</v>
-      </c>
-      <c r="I42" t="n">
-        <v>4153</v>
-      </c>
-      <c r="J42" t="n">
-        <v>27809</v>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>42591</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>4153</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>27809</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -2223,8 +2551,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D43" t="n">
-        <v>47276</v>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>47276</t>
+        </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2239,14 +2569,20 @@
       <c r="G43" t="n">
         <v>2</v>
       </c>
-      <c r="H43" t="n">
-        <v>43818</v>
-      </c>
-      <c r="I43" t="n">
-        <v>3458</v>
-      </c>
-      <c r="J43" t="n">
-        <v>27570</v>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>43818</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>3458</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>27570</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -2265,8 +2601,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D44" t="n">
-        <v>47362</v>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>47362</t>
+        </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2281,14 +2619,20 @@
       <c r="G44" t="n">
         <v>3</v>
       </c>
-      <c r="H44" t="n">
-        <v>44142</v>
-      </c>
-      <c r="I44" t="n">
-        <v>3220</v>
-      </c>
-      <c r="J44" t="n">
-        <v>27643</v>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>44142</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>3220</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>27643</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -2307,8 +2651,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D45" t="n">
-        <v>46779</v>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>46779</t>
+        </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2323,14 +2669,20 @@
       <c r="G45" t="n">
         <v>4</v>
       </c>
-      <c r="H45" t="n">
-        <v>43897</v>
-      </c>
-      <c r="I45" t="n">
-        <v>2882</v>
-      </c>
-      <c r="J45" t="n">
-        <v>27808</v>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>43897</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2882</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>27808</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -2349,8 +2701,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D46" t="n">
-        <v>46392</v>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>46392</t>
+        </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2365,14 +2719,20 @@
       <c r="G46" t="n">
         <v>1</v>
       </c>
-      <c r="H46" t="n">
-        <v>43255</v>
-      </c>
-      <c r="I46" t="n">
-        <v>3137</v>
-      </c>
-      <c r="J46" t="n">
-        <v>28132</v>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>43255</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>3137</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>28132</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -2391,8 +2751,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D47" t="n">
-        <v>46742</v>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>46742</t>
+        </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2407,14 +2769,20 @@
       <c r="G47" t="n">
         <v>2</v>
       </c>
-      <c r="H47" t="n">
-        <v>43820</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2922</v>
-      </c>
-      <c r="J47" t="n">
-        <v>28232</v>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>43820</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>2922</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>28232</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -2433,8 +2801,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D48" t="n">
-        <v>46915</v>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>46915</t>
+        </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2449,14 +2819,20 @@
       <c r="G48" t="n">
         <v>3</v>
       </c>
-      <c r="H48" t="n">
-        <v>44125</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2790</v>
-      </c>
-      <c r="J48" t="n">
-        <v>28215</v>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>44125</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>2790</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>28215</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -2475,8 +2851,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>46983</v>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>46983</t>
+        </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2491,14 +2869,20 @@
       <c r="G49" t="n">
         <v>4</v>
       </c>
-      <c r="H49" t="n">
-        <v>44227</v>
-      </c>
-      <c r="I49" t="n">
-        <v>2756</v>
-      </c>
-      <c r="J49" t="n">
-        <v>27866</v>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>44227</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>2756</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>27866</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -2517,8 +2901,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D50" t="n">
-        <v>8075</v>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8075</t>
+        </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2533,14 +2919,20 @@
       <c r="G50" t="n">
         <v>1</v>
       </c>
-      <c r="H50" t="n">
-        <v>7292</v>
-      </c>
-      <c r="I50" t="n">
-        <v>783</v>
-      </c>
-      <c r="J50" t="n">
-        <v>4344</v>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>7292</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>783</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>4344</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -2559,8 +2951,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D51" t="n">
-        <v>7511</v>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7511</t>
+        </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2575,14 +2969,20 @@
       <c r="G51" t="n">
         <v>2</v>
       </c>
-      <c r="H51" t="n">
-        <v>6786</v>
-      </c>
-      <c r="I51" t="n">
-        <v>725</v>
-      </c>
-      <c r="J51" t="n">
-        <v>4005</v>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>6786</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>725</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>4005</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -2601,8 +3001,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D52" t="n">
-        <v>7555</v>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7555</t>
+        </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2617,14 +3019,20 @@
       <c r="G52" t="n">
         <v>3</v>
       </c>
-      <c r="H52" t="n">
-        <v>6915</v>
-      </c>
-      <c r="I52" t="n">
-        <v>641</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3975</v>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>6915</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>641</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>3975</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -2643,8 +3051,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D53" t="n">
-        <v>7497</v>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7497</t>
+        </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2659,14 +3069,20 @@
       <c r="G53" t="n">
         <v>4</v>
       </c>
-      <c r="H53" t="n">
-        <v>6849</v>
-      </c>
-      <c r="I53" t="n">
-        <v>649</v>
-      </c>
-      <c r="J53" t="n">
-        <v>4026</v>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>6849</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>4026</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -2685,8 +3101,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D54" t="n">
-        <v>7349</v>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7349</t>
+        </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2701,14 +3119,20 @@
       <c r="G54" t="n">
         <v>1</v>
       </c>
-      <c r="H54" t="n">
-        <v>6614</v>
-      </c>
-      <c r="I54" t="n">
-        <v>734</v>
-      </c>
-      <c r="J54" t="n">
-        <v>3940</v>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>6614</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>734</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>3940</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -2727,8 +3151,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D55" t="n">
-        <v>7258</v>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7258</t>
+        </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2743,14 +3169,20 @@
       <c r="G55" t="n">
         <v>2</v>
       </c>
-      <c r="H55" t="n">
-        <v>6589</v>
-      </c>
-      <c r="I55" t="n">
-        <v>669</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3958</v>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>6589</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>669</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>3958</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -2769,8 +3201,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D56" t="n">
-        <v>7665</v>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7665</t>
+        </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2785,14 +3219,20 @@
       <c r="G56" t="n">
         <v>3</v>
       </c>
-      <c r="H56" t="n">
-        <v>7032</v>
-      </c>
-      <c r="I56" t="n">
-        <v>633</v>
-      </c>
-      <c r="J56" t="n">
-        <v>4112</v>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>7032</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>4112</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -2811,8 +3251,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D57" t="n">
-        <v>7780</v>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>7780</t>
+        </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2827,14 +3269,20 @@
       <c r="G57" t="n">
         <v>4</v>
       </c>
-      <c r="H57" t="n">
-        <v>7132</v>
-      </c>
-      <c r="I57" t="n">
-        <v>648</v>
-      </c>
-      <c r="J57" t="n">
-        <v>4124</v>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>7132</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>648</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>4124</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -2853,8 +3301,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D58" t="n">
-        <v>7747</v>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>7747</t>
+        </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2869,14 +3319,20 @@
       <c r="G58" t="n">
         <v>1</v>
       </c>
-      <c r="H58" t="n">
-        <v>7033</v>
-      </c>
-      <c r="I58" t="n">
-        <v>714</v>
-      </c>
-      <c r="J58" t="n">
-        <v>4153</v>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>7033</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>4153</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -2895,8 +3351,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D59" t="n">
-        <v>7764</v>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>7764</t>
+        </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2911,14 +3369,20 @@
       <c r="G59" t="n">
         <v>2</v>
       </c>
-      <c r="H59" t="n">
-        <v>7082</v>
-      </c>
-      <c r="I59" t="n">
-        <v>681</v>
-      </c>
-      <c r="J59" t="n">
-        <v>4173</v>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>7082</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>4173</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -2937,8 +3401,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D60" t="n">
-        <v>7856</v>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>7856</t>
+        </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2953,14 +3419,20 @@
       <c r="G60" t="n">
         <v>3</v>
       </c>
-      <c r="H60" t="n">
-        <v>7157</v>
-      </c>
-      <c r="I60" t="n">
-        <v>699</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4265</v>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>4265</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -2979,8 +3451,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D61" t="n">
-        <v>7917</v>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>7917</t>
+        </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2995,14 +3469,20 @@
       <c r="G61" t="n">
         <v>4</v>
       </c>
-      <c r="H61" t="n">
-        <v>7280</v>
-      </c>
-      <c r="I61" t="n">
-        <v>637</v>
-      </c>
-      <c r="J61" t="n">
-        <v>4245</v>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>7280</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>637</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>4245</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -3021,8 +3501,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D62" t="n">
-        <v>7928</v>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7928</t>
+        </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3037,14 +3519,20 @@
       <c r="G62" t="n">
         <v>1</v>
       </c>
-      <c r="H62" t="n">
-        <v>7136</v>
-      </c>
-      <c r="I62" t="n">
-        <v>792</v>
-      </c>
-      <c r="J62" t="n">
-        <v>4238</v>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>7136</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>4238</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -3063,8 +3551,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D63" t="n">
-        <v>7982</v>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>7982</t>
+        </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -3079,14 +3569,20 @@
       <c r="G63" t="n">
         <v>2</v>
       </c>
-      <c r="H63" t="n">
-        <v>7164</v>
-      </c>
-      <c r="I63" t="n">
-        <v>818</v>
-      </c>
-      <c r="J63" t="n">
-        <v>4171</v>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>7164</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>818</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>4171</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -3105,8 +3601,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D64" t="n">
-        <v>8269</v>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>8269</t>
+        </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3121,14 +3619,20 @@
       <c r="G64" t="n">
         <v>3</v>
       </c>
-      <c r="H64" t="n">
-        <v>7360</v>
-      </c>
-      <c r="I64" t="n">
-        <v>909</v>
-      </c>
-      <c r="J64" t="n">
-        <v>4288</v>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>7360</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>909</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>4288</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -3147,8 +3651,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D65" t="n">
-        <v>8853</v>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>8853</t>
+        </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3163,14 +3669,20 @@
       <c r="G65" t="n">
         <v>4</v>
       </c>
-      <c r="H65" t="n">
-        <v>7849</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1004</v>
-      </c>
-      <c r="J65" t="n">
-        <v>4603</v>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>7849</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>4603</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -3189,8 +3701,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D66" t="n">
-        <v>8823</v>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>8823</t>
+        </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3205,14 +3719,20 @@
       <c r="G66" t="n">
         <v>1</v>
       </c>
-      <c r="H66" t="n">
-        <v>7605</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1218</v>
-      </c>
-      <c r="J66" t="n">
-        <v>4509</v>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>7605</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>1218</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>4509</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -3231,8 +3751,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D67" t="n">
-        <v>8859</v>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>8859</t>
+        </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3247,14 +3769,20 @@
       <c r="G67" t="n">
         <v>2</v>
       </c>
-      <c r="H67" t="n">
-        <v>7541</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1318</v>
-      </c>
-      <c r="J67" t="n">
-        <v>4563</v>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>7541</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>1318</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>4563</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -3273,8 +3801,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D68" t="n">
-        <v>8921</v>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>8921</t>
+        </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3289,14 +3819,20 @@
       <c r="G68" t="n">
         <v>3</v>
       </c>
-      <c r="H68" t="n">
-        <v>7612</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1310</v>
-      </c>
-      <c r="J68" t="n">
-        <v>4649</v>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>7612</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>1310</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>4649</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -3315,8 +3851,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D69" t="n">
-        <v>9458</v>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>9458</t>
+        </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3331,14 +3869,20 @@
       <c r="G69" t="n">
         <v>4</v>
       </c>
-      <c r="H69" t="n">
-        <v>8078</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1379</v>
-      </c>
-      <c r="J69" t="n">
-        <v>4830</v>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>8078</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>1379</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>4830</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -3357,8 +3901,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D70" t="n">
-        <v>9675</v>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>9675</t>
+        </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3373,14 +3919,20 @@
       <c r="G70" t="n">
         <v>1</v>
       </c>
-      <c r="H70" t="n">
-        <v>8020</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1655</v>
-      </c>
-      <c r="J70" t="n">
-        <v>4878</v>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>8020</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>1655</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>4878</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -3399,8 +3951,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D71" t="n">
-        <v>9512</v>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>9512</t>
+        </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3415,14 +3969,20 @@
       <c r="G71" t="n">
         <v>2</v>
       </c>
-      <c r="H71" t="n">
-        <v>7995</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1517</v>
-      </c>
-      <c r="J71" t="n">
-        <v>4813</v>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>7995</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>1517</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>4813</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -3441,8 +4001,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D72" t="n">
-        <v>9611</v>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>9611</t>
+        </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3457,14 +4019,20 @@
       <c r="G72" t="n">
         <v>3</v>
       </c>
-      <c r="H72" t="n">
-        <v>8152</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1459</v>
-      </c>
-      <c r="J72" t="n">
-        <v>4814</v>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>8152</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>1459</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>4814</t>
+        </is>
       </c>
     </row>
     <row r="73">
@@ -3483,8 +4051,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D73" t="n">
-        <v>10233</v>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>10233</t>
+        </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3499,14 +4069,20 @@
       <c r="G73" t="n">
         <v>4</v>
       </c>
-      <c r="H73" t="n">
-        <v>8741</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1493</v>
-      </c>
-      <c r="J73" t="n">
-        <v>5088</v>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>8741</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>1493</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>5088</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -3525,8 +4101,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D74" t="n">
-        <v>10065</v>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>10065</t>
+        </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3541,14 +4119,20 @@
       <c r="G74" t="n">
         <v>1</v>
       </c>
-      <c r="H74" t="n">
-        <v>8448</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1617</v>
-      </c>
-      <c r="J74" t="n">
-        <v>5206</v>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>8448</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>1617</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>5206</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -3567,8 +4151,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D75" t="n">
-        <v>10277</v>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>10277</t>
+        </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3583,14 +4169,20 @@
       <c r="G75" t="n">
         <v>2</v>
       </c>
-      <c r="H75" t="n">
-        <v>8722</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1555</v>
-      </c>
-      <c r="J75" t="n">
-        <v>5295</v>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>8722</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>1555</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
       </c>
     </row>
     <row r="76">
@@ -3609,8 +4201,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D76" t="n">
-        <v>10410</v>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>10410</t>
+        </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3625,14 +4219,20 @@
       <c r="G76" t="n">
         <v>3</v>
       </c>
-      <c r="H76" t="n">
-        <v>8881</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1530</v>
-      </c>
-      <c r="J76" t="n">
-        <v>5187</v>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>8881</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>1530</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>5187</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -3651,8 +4251,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D77" t="n">
-        <v>10926</v>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>10926</t>
+        </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3667,14 +4269,20 @@
       <c r="G77" t="n">
         <v>4</v>
       </c>
-      <c r="H77" t="n">
-        <v>9325</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1601</v>
-      </c>
-      <c r="J77" t="n">
-        <v>5548</v>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>9325</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>1601</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>5548</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -3693,8 +4301,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D78" t="n">
-        <v>10899</v>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>10899</t>
+        </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3709,14 +4319,20 @@
       <c r="G78" t="n">
         <v>1</v>
       </c>
-      <c r="H78" t="n">
-        <v>9141</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1758</v>
-      </c>
-      <c r="J78" t="n">
-        <v>5513</v>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>9141</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>1758</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>5513</t>
+        </is>
       </c>
     </row>
     <row r="79">
@@ -3735,8 +4351,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D79" t="n">
-        <v>10991</v>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>10991</t>
+        </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3751,14 +4369,20 @@
       <c r="G79" t="n">
         <v>2</v>
       </c>
-      <c r="H79" t="n">
-        <v>9389</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1602</v>
-      </c>
-      <c r="J79" t="n">
-        <v>5481</v>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>9389</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>1602</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>5481</t>
+        </is>
       </c>
     </row>
     <row r="80">
@@ -3777,8 +4401,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D80" t="n">
-        <v>10887</v>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>10887</t>
+        </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3793,14 +4419,20 @@
       <c r="G80" t="n">
         <v>3</v>
       </c>
-      <c r="H80" t="n">
-        <v>9257</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1630</v>
-      </c>
-      <c r="J80" t="n">
-        <v>5323</v>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>9257</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>1630</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>5323</t>
+        </is>
       </c>
     </row>
     <row r="81">
@@ -3819,8 +4451,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D81" t="n">
-        <v>11456</v>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>11456</t>
+        </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3835,14 +4469,20 @@
       <c r="G81" t="n">
         <v>4</v>
       </c>
-      <c r="H81" t="n">
-        <v>9887</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1568</v>
-      </c>
-      <c r="J81" t="n">
-        <v>5607</v>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>9887</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>1568</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>5607</t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -3861,8 +4501,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D82" t="n">
-        <v>11033</v>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>11033</t>
+        </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3877,14 +4519,20 @@
       <c r="G82" t="n">
         <v>1</v>
       </c>
-      <c r="H82" t="n">
-        <v>9341</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1692</v>
-      </c>
-      <c r="J82" t="n">
-        <v>5593</v>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>9341</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>1692</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>5593</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -3903,8 +4551,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D83" t="n">
-        <v>9475</v>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>9475</t>
+        </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3919,14 +4569,20 @@
       <c r="G83" t="n">
         <v>2</v>
       </c>
-      <c r="H83" t="n">
-        <v>7763</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1712</v>
-      </c>
-      <c r="J83" t="n">
-        <v>6296</v>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>7763</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>1712</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>6296</t>
+        </is>
       </c>
     </row>
     <row r="84">
@@ -3945,8 +4601,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D84" t="n">
-        <v>9635</v>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>9635</t>
+        </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3961,14 +4619,20 @@
       <c r="G84" t="n">
         <v>3</v>
       </c>
-      <c r="H84" t="n">
-        <v>7763</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1872</v>
-      </c>
-      <c r="J84" t="n">
-        <v>6218</v>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>7763</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>1872</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>6218</t>
+        </is>
       </c>
     </row>
     <row r="85">
@@ -3987,8 +4651,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D85" t="n">
-        <v>10021</v>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>10021</t>
+        </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -4003,14 +4669,20 @@
       <c r="G85" t="n">
         <v>4</v>
       </c>
-      <c r="H85" t="n">
-        <v>8251</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1771</v>
-      </c>
-      <c r="J85" t="n">
-        <v>5973</v>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>8251</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>1771</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>5973</t>
+        </is>
       </c>
     </row>
     <row r="86">
@@ -4029,8 +4701,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D86" t="n">
-        <v>10131</v>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>10131</t>
+        </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -4045,14 +4719,20 @@
       <c r="G86" t="n">
         <v>1</v>
       </c>
-      <c r="H86" t="n">
-        <v>8229</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1902</v>
-      </c>
-      <c r="J86" t="n">
-        <v>5747</v>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>8229</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>1902</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>5747</t>
+        </is>
       </c>
     </row>
     <row r="87">
@@ -4071,8 +4751,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D87" t="n">
-        <v>10533</v>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>10533</t>
+        </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -4087,14 +4769,20 @@
       <c r="G87" t="n">
         <v>2</v>
       </c>
-      <c r="H87" t="n">
-        <v>8763</v>
-      </c>
-      <c r="I87" t="n">
-        <v>1770</v>
-      </c>
-      <c r="J87" t="n">
-        <v>5756</v>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>8763</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>1770</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>5756</t>
+        </is>
       </c>
     </row>
     <row r="88">
@@ -4113,8 +4801,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D88" t="n">
-        <v>11381</v>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>11381</t>
+        </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -4129,14 +4819,20 @@
       <c r="G88" t="n">
         <v>3</v>
       </c>
-      <c r="H88" t="n">
-        <v>9583</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1799</v>
-      </c>
-      <c r="J88" t="n">
-        <v>5848</v>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>9583</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>1799</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>5848</t>
+        </is>
       </c>
     </row>
     <row r="89">
@@ -4155,8 +4851,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D89" t="n">
-        <v>11908</v>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>11908</t>
+        </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -4171,14 +4869,20 @@
       <c r="G89" t="n">
         <v>4</v>
       </c>
-      <c r="H89" t="n">
-        <v>10288</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1620</v>
-      </c>
-      <c r="J89" t="n">
-        <v>6040</v>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>10288</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>1620</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>6040</t>
+        </is>
       </c>
     </row>
     <row r="90">
@@ -4197,8 +4901,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D90" t="n">
-        <v>12082</v>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>12082</t>
+        </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -4213,14 +4919,20 @@
       <c r="G90" t="n">
         <v>1</v>
       </c>
-      <c r="H90" t="n">
-        <v>10480</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1602</v>
-      </c>
-      <c r="J90" t="n">
-        <v>6388</v>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>10480</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>1602</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>6388</t>
+        </is>
       </c>
     </row>
     <row r="91">
@@ -4239,8 +4951,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D91" t="n">
-        <v>12345</v>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -4255,14 +4969,20 @@
       <c r="G91" t="n">
         <v>2</v>
       </c>
-      <c r="H91" t="n">
-        <v>10951</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1394</v>
-      </c>
-      <c r="J91" t="n">
-        <v>6411</v>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>10951</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>1394</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>6411</t>
+        </is>
       </c>
     </row>
     <row r="92">
@@ -4281,8 +5001,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D92" t="n">
-        <v>12620</v>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>12620</t>
+        </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -4297,14 +5019,20 @@
       <c r="G92" t="n">
         <v>3</v>
       </c>
-      <c r="H92" t="n">
-        <v>11216</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1404</v>
-      </c>
-      <c r="J92" t="n">
-        <v>6513</v>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>11216</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>1404</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>6513</t>
+        </is>
       </c>
     </row>
     <row r="93">
@@ -4323,8 +5051,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D93" t="n">
-        <v>12635</v>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>12635</t>
+        </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -4339,14 +5069,20 @@
       <c r="G93" t="n">
         <v>4</v>
       </c>
-      <c r="H93" t="n">
-        <v>11384</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1251</v>
-      </c>
-      <c r="J93" t="n">
-        <v>6743</v>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>11384</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>1251</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>6743</t>
+        </is>
       </c>
     </row>
     <row r="94">
@@ -4365,8 +5101,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D94" t="n">
-        <v>12700</v>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>12700</t>
+        </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -4381,14 +5119,20 @@
       <c r="G94" t="n">
         <v>1</v>
       </c>
-      <c r="H94" t="n">
-        <v>11263</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1437</v>
-      </c>
-      <c r="J94" t="n">
-        <v>6813</v>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>11263</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>1437</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>6813</t>
+        </is>
       </c>
     </row>
     <row r="95">
@@ -4407,8 +5151,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D95" t="n">
-        <v>12505</v>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>12505</t>
+        </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -4423,14 +5169,20 @@
       <c r="G95" t="n">
         <v>2</v>
       </c>
-      <c r="H95" t="n">
-        <v>11250</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1254</v>
-      </c>
-      <c r="J95" t="n">
-        <v>6768</v>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>11250</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>1254</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>6768</t>
+        </is>
       </c>
     </row>
     <row r="96">
@@ -4449,8 +5201,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D96" t="n">
-        <v>12459</v>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>12459</t>
+        </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -4465,14 +5219,20 @@
       <c r="G96" t="n">
         <v>3</v>
       </c>
-      <c r="H96" t="n">
-        <v>11261</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1198</v>
-      </c>
-      <c r="J96" t="n">
-        <v>6689</v>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>11261</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>1198</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>6689</t>
+        </is>
       </c>
     </row>
     <row r="97">
@@ -4491,8 +5251,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D97" t="n">
-        <v>12819</v>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>12819</t>
+        </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -4507,14 +5269,20 @@
       <c r="G97" t="n">
         <v>4</v>
       </c>
-      <c r="H97" t="n">
-        <v>11672</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1147</v>
-      </c>
-      <c r="J97" t="n">
-        <v>6663</v>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>11672</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>1147</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>6663</t>
+        </is>
       </c>
     </row>
     <row r="98">
@@ -4533,8 +5301,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D98" t="n">
-        <v>40929</v>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>40929</t>
+        </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -4549,14 +5319,20 @@
       <c r="G98" t="n">
         <v>1</v>
       </c>
-      <c r="H98" t="n">
-        <v>37176</v>
-      </c>
-      <c r="I98" t="n">
-        <v>3753</v>
-      </c>
-      <c r="J98" t="n">
-        <v>25749</v>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>37176</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>3753</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>25749</t>
+        </is>
       </c>
     </row>
     <row r="99">
@@ -4575,8 +5351,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D99" t="n">
-        <v>42586</v>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>42586</t>
+        </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -4591,14 +5369,20 @@
       <c r="G99" t="n">
         <v>2</v>
       </c>
-      <c r="H99" t="n">
-        <v>38854</v>
-      </c>
-      <c r="I99" t="n">
-        <v>3732</v>
-      </c>
-      <c r="J99" t="n">
-        <v>26512</v>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>38854</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>3732</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>26512</t>
+        </is>
       </c>
     </row>
     <row r="100">
@@ -4617,8 +5401,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D100" t="n">
-        <v>42826</v>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>42826</t>
+        </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -4633,14 +5419,20 @@
       <c r="G100" t="n">
         <v>3</v>
       </c>
-      <c r="H100" t="n">
-        <v>39217</v>
-      </c>
-      <c r="I100" t="n">
-        <v>3609</v>
-      </c>
-      <c r="J100" t="n">
-        <v>26898</v>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>39217</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>3609</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>26898</t>
+        </is>
       </c>
     </row>
     <row r="101">
@@ -4659,8 +5451,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D101" t="n">
-        <v>43352</v>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>43352</t>
+        </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -4675,14 +5469,20 @@
       <c r="G101" t="n">
         <v>4</v>
       </c>
-      <c r="H101" t="n">
-        <v>39814</v>
-      </c>
-      <c r="I101" t="n">
-        <v>3538</v>
-      </c>
-      <c r="J101" t="n">
-        <v>27425</v>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>39814</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>3538</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>27425</t>
+        </is>
       </c>
     </row>
     <row r="102">
@@ -4701,8 +5501,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D102" t="n">
-        <v>44077</v>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>44077</t>
+        </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -4717,14 +5519,20 @@
       <c r="G102" t="n">
         <v>1</v>
       </c>
-      <c r="H102" t="n">
-        <v>39884</v>
-      </c>
-      <c r="I102" t="n">
-        <v>4193</v>
-      </c>
-      <c r="J102" t="n">
-        <v>27814</v>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>39884</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>4193</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>27814</t>
+        </is>
       </c>
     </row>
     <row r="103">
@@ -4743,8 +5551,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D103" t="n">
-        <v>44256</v>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>44256</t>
+        </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -4759,14 +5569,20 @@
       <c r="G103" t="n">
         <v>2</v>
       </c>
-      <c r="H103" t="n">
-        <v>40338</v>
-      </c>
-      <c r="I103" t="n">
-        <v>3918</v>
-      </c>
-      <c r="J103" t="n">
-        <v>27784</v>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>40338</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>3918</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>27784</t>
+        </is>
       </c>
     </row>
     <row r="104">
@@ -4785,8 +5601,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D104" t="n">
-        <v>43591</v>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>43591</t>
+        </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -4801,14 +5619,20 @@
       <c r="G104" t="n">
         <v>3</v>
       </c>
-      <c r="H104" t="n">
-        <v>40002</v>
-      </c>
-      <c r="I104" t="n">
-        <v>3590</v>
-      </c>
-      <c r="J104" t="n">
-        <v>27533</v>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>40002</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>3590</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>27533</t>
+        </is>
       </c>
     </row>
     <row r="105">
@@ -4827,8 +5651,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D105" t="n">
-        <v>43899</v>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>43899</t>
+        </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -4843,14 +5669,20 @@
       <c r="G105" t="n">
         <v>4</v>
       </c>
-      <c r="H105" t="n">
-        <v>40752</v>
-      </c>
-      <c r="I105" t="n">
-        <v>3148</v>
-      </c>
-      <c r="J105" t="n">
-        <v>27813</v>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>40752</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>3148</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>27813</t>
+        </is>
       </c>
     </row>
     <row r="106">
@@ -4869,8 +5701,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D106" t="n">
-        <v>44110</v>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>44110</t>
+        </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -4885,14 +5719,20 @@
       <c r="G106" t="n">
         <v>1</v>
       </c>
-      <c r="H106" t="n">
-        <v>40415</v>
-      </c>
-      <c r="I106" t="n">
-        <v>3695</v>
-      </c>
-      <c r="J106" t="n">
-        <v>27740</v>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>40415</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>3695</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>27740</t>
+        </is>
       </c>
     </row>
     <row r="107">
@@ -4911,8 +5751,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D107" t="n">
-        <v>44480</v>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>44480</t>
+        </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -4927,14 +5769,20 @@
       <c r="G107" t="n">
         <v>2</v>
       </c>
-      <c r="H107" t="n">
-        <v>40907</v>
-      </c>
-      <c r="I107" t="n">
-        <v>3574</v>
-      </c>
-      <c r="J107" t="n">
-        <v>27878</v>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>40907</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>3574</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>27878</t>
+        </is>
       </c>
     </row>
     <row r="108">
@@ -4953,8 +5801,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D108" t="n">
-        <v>44857</v>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>44857</t>
+        </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -4969,14 +5819,20 @@
       <c r="G108" t="n">
         <v>3</v>
       </c>
-      <c r="H108" t="n">
-        <v>41359</v>
-      </c>
-      <c r="I108" t="n">
-        <v>3498</v>
-      </c>
-      <c r="J108" t="n">
-        <v>28245</v>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>41359</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>3498</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>28245</t>
+        </is>
       </c>
     </row>
     <row r="109">
@@ -4995,8 +5851,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D109" t="n">
-        <v>44935</v>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>44935</t>
+        </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -5011,14 +5869,20 @@
       <c r="G109" t="n">
         <v>4</v>
       </c>
-      <c r="H109" t="n">
-        <v>41551</v>
-      </c>
-      <c r="I109" t="n">
-        <v>3384</v>
-      </c>
-      <c r="J109" t="n">
-        <v>28440</v>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>41551</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>3384</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>28440</t>
+        </is>
       </c>
     </row>
     <row r="110">
@@ -5037,8 +5901,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D110" t="n">
-        <v>45597</v>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>45597</t>
+        </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -5053,14 +5919,20 @@
       <c r="G110" t="n">
         <v>1</v>
       </c>
-      <c r="H110" t="n">
-        <v>41370</v>
-      </c>
-      <c r="I110" t="n">
-        <v>4226</v>
-      </c>
-      <c r="J110" t="n">
-        <v>28655</v>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>41370</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>4226</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>28655</t>
+        </is>
       </c>
     </row>
     <row r="111">
@@ -5079,8 +5951,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D111" t="n">
-        <v>45547</v>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>45547</t>
+        </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -5095,14 +5969,20 @@
       <c r="G111" t="n">
         <v>2</v>
       </c>
-      <c r="H111" t="n">
-        <v>41114</v>
-      </c>
-      <c r="I111" t="n">
-        <v>4433</v>
-      </c>
-      <c r="J111" t="n">
-        <v>28392</v>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>41114</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>4433</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>28392</t>
+        </is>
       </c>
     </row>
     <row r="112">
@@ -5121,8 +6001,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D112" t="n">
-        <v>45715</v>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>45715</t>
+        </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -5137,14 +6019,20 @@
       <c r="G112" t="n">
         <v>3</v>
       </c>
-      <c r="H112" t="n">
-        <v>40946</v>
-      </c>
-      <c r="I112" t="n">
-        <v>4770</v>
-      </c>
-      <c r="J112" t="n">
-        <v>28154</v>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>40946</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>4770</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>28154</t>
+        </is>
       </c>
     </row>
     <row r="113">
@@ -5163,8 +6051,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D113" t="n">
-        <v>45133</v>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>45133</t>
+        </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -5179,14 +6069,20 @@
       <c r="G113" t="n">
         <v>4</v>
       </c>
-      <c r="H113" t="n">
-        <v>40463</v>
-      </c>
-      <c r="I113" t="n">
-        <v>4670</v>
-      </c>
-      <c r="J113" t="n">
-        <v>28295</v>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>40463</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>4670</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>28295</t>
+        </is>
       </c>
     </row>
     <row r="114">
@@ -5205,8 +6101,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D114" t="n">
-        <v>45901</v>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>45901</t>
+        </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -5221,14 +6119,20 @@
       <c r="G114" t="n">
         <v>1</v>
       </c>
-      <c r="H114" t="n">
-        <v>40036</v>
-      </c>
-      <c r="I114" t="n">
-        <v>5866</v>
-      </c>
-      <c r="J114" t="n">
-        <v>28627</v>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>40036</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>5866</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>28627</t>
+        </is>
       </c>
     </row>
     <row r="115">
@@ -5247,8 +6151,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D115" t="n">
-        <v>45744</v>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>45744</t>
+        </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -5263,14 +6169,20 @@
       <c r="G115" t="n">
         <v>2</v>
       </c>
-      <c r="H115" t="n">
-        <v>39807</v>
-      </c>
-      <c r="I115" t="n">
-        <v>5937</v>
-      </c>
-      <c r="J115" t="n">
-        <v>28659</v>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>39807</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>5937</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>28659</t>
+        </is>
       </c>
     </row>
     <row r="116">
@@ -5289,8 +6201,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D116" t="n">
-        <v>45774</v>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>45774</t>
+        </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -5305,14 +6219,20 @@
       <c r="G116" t="n">
         <v>3</v>
       </c>
-      <c r="H116" t="n">
-        <v>39486</v>
-      </c>
-      <c r="I116" t="n">
-        <v>6288</v>
-      </c>
-      <c r="J116" t="n">
-        <v>29219</v>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>39486</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>6288</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>29219</t>
+        </is>
       </c>
     </row>
     <row r="117">
@@ -5331,8 +6251,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D117" t="n">
-        <v>46338</v>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>46338</t>
+        </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -5347,14 +6269,20 @@
       <c r="G117" t="n">
         <v>4</v>
       </c>
-      <c r="H117" t="n">
-        <v>39746</v>
-      </c>
-      <c r="I117" t="n">
-        <v>6591</v>
-      </c>
-      <c r="J117" t="n">
-        <v>29546</v>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>39746</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>6591</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>29546</t>
+        </is>
       </c>
     </row>
     <row r="118">
@@ -5373,8 +6301,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D118" t="n">
-        <v>46421</v>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>46421</t>
+        </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -5389,14 +6319,20 @@
       <c r="G118" t="n">
         <v>1</v>
       </c>
-      <c r="H118" t="n">
-        <v>38937</v>
-      </c>
-      <c r="I118" t="n">
-        <v>7484</v>
-      </c>
-      <c r="J118" t="n">
-        <v>29649</v>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>38937</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>7484</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>29649</t>
+        </is>
       </c>
     </row>
     <row r="119">
@@ -5415,8 +6351,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D119" t="n">
-        <v>47285</v>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>47285</t>
+        </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -5431,14 +6369,20 @@
       <c r="G119" t="n">
         <v>2</v>
       </c>
-      <c r="H119" t="n">
-        <v>40096</v>
-      </c>
-      <c r="I119" t="n">
-        <v>7189</v>
-      </c>
-      <c r="J119" t="n">
-        <v>29544</v>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>40096</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>29544</t>
+        </is>
       </c>
     </row>
     <row r="120">
@@ -5457,8 +6401,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D120" t="n">
-        <v>47341</v>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>47341</t>
+        </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -5473,14 +6419,20 @@
       <c r="G120" t="n">
         <v>3</v>
       </c>
-      <c r="H120" t="n">
-        <v>40461</v>
-      </c>
-      <c r="I120" t="n">
-        <v>6880</v>
-      </c>
-      <c r="J120" t="n">
-        <v>29470</v>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>40461</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>6880</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>29470</t>
+        </is>
       </c>
     </row>
     <row r="121">
@@ -5499,8 +6451,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D121" t="n">
-        <v>47427</v>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>47427</t>
+        </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -5515,14 +6469,20 @@
       <c r="G121" t="n">
         <v>4</v>
       </c>
-      <c r="H121" t="n">
-        <v>40949</v>
-      </c>
-      <c r="I121" t="n">
-        <v>6478</v>
-      </c>
-      <c r="J121" t="n">
-        <v>29610</v>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>40949</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>6478</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>29610</t>
+        </is>
       </c>
     </row>
     <row r="122">
@@ -5541,8 +6501,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D122" t="n">
-        <v>47999</v>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>47999</t>
+        </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -5557,14 +6519,20 @@
       <c r="G122" t="n">
         <v>1</v>
       </c>
-      <c r="H122" t="n">
-        <v>40685</v>
-      </c>
-      <c r="I122" t="n">
-        <v>7315</v>
-      </c>
-      <c r="J122" t="n">
-        <v>29804</v>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>40685</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>7315</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>29804</t>
+        </is>
       </c>
     </row>
     <row r="123">
@@ -5583,8 +6551,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D123" t="n">
-        <v>47412</v>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>47412</t>
+        </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -5599,14 +6569,20 @@
       <c r="G123" t="n">
         <v>2</v>
       </c>
-      <c r="H123" t="n">
-        <v>40515</v>
-      </c>
-      <c r="I123" t="n">
-        <v>6897</v>
-      </c>
-      <c r="J123" t="n">
-        <v>29942</v>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>40515</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>6897</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>29942</t>
+        </is>
       </c>
     </row>
     <row r="124">
@@ -5625,8 +6601,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D124" t="n">
-        <v>47791</v>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>47791</t>
+        </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -5641,14 +6619,20 @@
       <c r="G124" t="n">
         <v>3</v>
       </c>
-      <c r="H124" t="n">
-        <v>41137</v>
-      </c>
-      <c r="I124" t="n">
-        <v>6654</v>
-      </c>
-      <c r="J124" t="n">
-        <v>29680</v>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>41137</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>6654</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>29680</t>
+        </is>
       </c>
     </row>
     <row r="125">
@@ -5667,8 +6651,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D125" t="n">
-        <v>47874</v>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>47874</t>
+        </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -5683,14 +6669,20 @@
       <c r="G125" t="n">
         <v>4</v>
       </c>
-      <c r="H125" t="n">
-        <v>41445</v>
-      </c>
-      <c r="I125" t="n">
-        <v>6429</v>
-      </c>
-      <c r="J125" t="n">
-        <v>29458</v>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>41445</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>6429</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>29458</t>
+        </is>
       </c>
     </row>
     <row r="126">
@@ -5709,8 +6701,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D126" t="n">
-        <v>47944</v>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>47944</t>
+        </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -5725,14 +6719,20 @@
       <c r="G126" t="n">
         <v>1</v>
       </c>
-      <c r="H126" t="n">
-        <v>40920</v>
-      </c>
-      <c r="I126" t="n">
-        <v>7025</v>
-      </c>
-      <c r="J126" t="n">
-        <v>29823</v>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>40920</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>7025</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>29823</t>
+        </is>
       </c>
     </row>
     <row r="127">
@@ -5751,8 +6751,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D127" t="n">
-        <v>48400</v>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>48400</t>
+        </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -5767,14 +6769,20 @@
       <c r="G127" t="n">
         <v>2</v>
       </c>
-      <c r="H127" t="n">
-        <v>41583</v>
-      </c>
-      <c r="I127" t="n">
-        <v>6816</v>
-      </c>
-      <c r="J127" t="n">
-        <v>29508</v>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>41583</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>6816</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>29508</t>
+        </is>
       </c>
     </row>
     <row r="128">
@@ -5793,8 +6801,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D128" t="n">
-        <v>49052</v>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>49052</t>
+        </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -5809,14 +6819,20 @@
       <c r="G128" t="n">
         <v>3</v>
       </c>
-      <c r="H128" t="n">
-        <v>42297</v>
-      </c>
-      <c r="I128" t="n">
-        <v>6755</v>
-      </c>
-      <c r="J128" t="n">
-        <v>29544</v>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>42297</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>6755</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>29544</t>
+        </is>
       </c>
     </row>
     <row r="129">
@@ -5835,8 +6851,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D129" t="n">
-        <v>48786</v>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>48786</t>
+        </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -5851,14 +6869,20 @@
       <c r="G129" t="n">
         <v>4</v>
       </c>
-      <c r="H129" t="n">
-        <v>42591</v>
-      </c>
-      <c r="I129" t="n">
-        <v>6195</v>
-      </c>
-      <c r="J129" t="n">
-        <v>30187</v>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>42591</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>6195</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>30187</t>
+        </is>
       </c>
     </row>
     <row r="130">
@@ -5877,8 +6901,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D130" t="n">
-        <v>48105</v>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>48105</t>
+        </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -5893,14 +6919,20 @@
       <c r="G130" t="n">
         <v>1</v>
       </c>
-      <c r="H130" t="n">
-        <v>41308</v>
-      </c>
-      <c r="I130" t="n">
-        <v>6798</v>
-      </c>
-      <c r="J130" t="n">
-        <v>30712</v>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>41308</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>6798</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>30712</t>
+        </is>
       </c>
     </row>
     <row r="131">
@@ -5919,8 +6951,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D131" t="n">
-        <v>43298</v>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>43298</t>
+        </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -5935,14 +6969,20 @@
       <c r="G131" t="n">
         <v>2</v>
       </c>
-      <c r="H131" t="n">
-        <v>36502</v>
-      </c>
-      <c r="I131" t="n">
-        <v>6797</v>
-      </c>
-      <c r="J131" t="n">
-        <v>35328</v>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>36502</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>6797</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>35328</t>
+        </is>
       </c>
     </row>
     <row r="132">
@@ -5961,8 +7001,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D132" t="n">
-        <v>44036</v>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>44036</t>
+        </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -5977,14 +7019,20 @@
       <c r="G132" t="n">
         <v>3</v>
       </c>
-      <c r="H132" t="n">
-        <v>36630</v>
-      </c>
-      <c r="I132" t="n">
-        <v>7406</v>
-      </c>
-      <c r="J132" t="n">
-        <v>34410</v>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>36630</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>7406</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>34410</t>
+        </is>
       </c>
     </row>
     <row r="133">
@@ -6003,8 +7051,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D133" t="n">
-        <v>45257</v>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>45257</t>
+        </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -6019,14 +7069,20 @@
       <c r="G133" t="n">
         <v>4</v>
       </c>
-      <c r="H133" t="n">
-        <v>37997</v>
-      </c>
-      <c r="I133" t="n">
-        <v>7260</v>
-      </c>
-      <c r="J133" t="n">
-        <v>32312</v>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>37997</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>7260</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>32312</t>
+        </is>
       </c>
     </row>
     <row r="134">
@@ -6045,8 +7101,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D134" t="n">
-        <v>45865</v>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>45865</t>
+        </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -6061,14 +7119,20 @@
       <c r="G134" t="n">
         <v>1</v>
       </c>
-      <c r="H134" t="n">
-        <v>38062</v>
-      </c>
-      <c r="I134" t="n">
-        <v>7803</v>
-      </c>
-      <c r="J134" t="n">
-        <v>32133</v>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>38062</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>7803</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>32133</t>
+        </is>
       </c>
     </row>
     <row r="135">
@@ -6087,8 +7151,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D135" t="n">
-        <v>46497</v>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>46497</t>
+        </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -6103,14 +7169,20 @@
       <c r="G135" t="n">
         <v>2</v>
       </c>
-      <c r="H135" t="n">
-        <v>38959</v>
-      </c>
-      <c r="I135" t="n">
-        <v>7538</v>
-      </c>
-      <c r="J135" t="n">
-        <v>31655</v>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>38959</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>7538</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>31655</t>
+        </is>
       </c>
     </row>
     <row r="136">
@@ -6129,8 +7201,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D136" t="n">
-        <v>47297</v>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>47297</t>
+        </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -6145,14 +7219,20 @@
       <c r="G136" t="n">
         <v>3</v>
       </c>
-      <c r="H136" t="n">
-        <v>40574</v>
-      </c>
-      <c r="I136" t="n">
-        <v>6723</v>
-      </c>
-      <c r="J136" t="n">
-        <v>30630</v>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>40574</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>6723</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>30630</t>
+        </is>
       </c>
     </row>
     <row r="137">
@@ -6171,8 +7251,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D137" t="n">
-        <v>47458</v>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>47458</t>
+        </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -6187,14 +7269,20 @@
       <c r="G137" t="n">
         <v>4</v>
       </c>
-      <c r="H137" t="n">
-        <v>41455</v>
-      </c>
-      <c r="I137" t="n">
-        <v>6003</v>
-      </c>
-      <c r="J137" t="n">
-        <v>30159</v>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>41455</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>6003</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>30159</t>
+        </is>
       </c>
     </row>
     <row r="138">
@@ -6213,8 +7301,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D138" t="n">
-        <v>47161</v>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>47161</t>
+        </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -6229,14 +7319,20 @@
       <c r="G138" t="n">
         <v>1</v>
       </c>
-      <c r="H138" t="n">
-        <v>41094</v>
-      </c>
-      <c r="I138" t="n">
-        <v>6067</v>
-      </c>
-      <c r="J138" t="n">
-        <v>30464</v>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>41094</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>6067</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>30464</t>
+        </is>
       </c>
     </row>
     <row r="139">
@@ -6255,8 +7351,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D139" t="n">
-        <v>47492</v>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>47492</t>
+        </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -6271,14 +7369,20 @@
       <c r="G139" t="n">
         <v>2</v>
       </c>
-      <c r="H139" t="n">
-        <v>42365</v>
-      </c>
-      <c r="I139" t="n">
-        <v>5127</v>
-      </c>
-      <c r="J139" t="n">
-        <v>29944</v>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>42365</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>5127</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>29944</t>
+        </is>
       </c>
     </row>
     <row r="140">
@@ -6297,8 +7401,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D140" t="n">
-        <v>47428</v>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>47428</t>
+        </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -6313,14 +7419,20 @@
       <c r="G140" t="n">
         <v>3</v>
       </c>
-      <c r="H140" t="n">
-        <v>42696</v>
-      </c>
-      <c r="I140" t="n">
-        <v>4732</v>
-      </c>
-      <c r="J140" t="n">
-        <v>29771</v>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>42696</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>29771</t>
+        </is>
       </c>
     </row>
     <row r="141">
@@ -6339,8 +7451,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D141" t="n">
-        <v>47257</v>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>47257</t>
+        </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -6355,14 +7469,20 @@
       <c r="G141" t="n">
         <v>4</v>
       </c>
-      <c r="H141" t="n">
-        <v>42907</v>
-      </c>
-      <c r="I141" t="n">
-        <v>4350</v>
-      </c>
-      <c r="J141" t="n">
-        <v>30525</v>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>42907</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>4350</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>30525</t>
+        </is>
       </c>
     </row>
     <row r="142">
@@ -6381,8 +7501,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D142" t="n">
-        <v>46893</v>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>46893</t>
+        </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -6397,14 +7519,20 @@
       <c r="G142" t="n">
         <v>1</v>
       </c>
-      <c r="H142" t="n">
-        <v>42136</v>
-      </c>
-      <c r="I142" t="n">
-        <v>4758</v>
-      </c>
-      <c r="J142" t="n">
-        <v>31208</v>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>42136</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>4758</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>31208</t>
+        </is>
       </c>
     </row>
     <row r="143">
@@ -6423,8 +7551,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D143" t="n">
-        <v>47030</v>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>47030</t>
+        </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -6439,14 +7569,20 @@
       <c r="G143" t="n">
         <v>2</v>
       </c>
-      <c r="H143" t="n">
-        <v>42656</v>
-      </c>
-      <c r="I143" t="n">
-        <v>4374</v>
-      </c>
-      <c r="J143" t="n">
-        <v>31207</v>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>42656</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>4374</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>31207</t>
+        </is>
       </c>
     </row>
     <row r="144">
@@ -6465,8 +7601,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D144" t="n">
-        <v>47505</v>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>47505</t>
+        </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -6481,14 +7619,20 @@
       <c r="G144" t="n">
         <v>3</v>
       </c>
-      <c r="H144" t="n">
-        <v>43283</v>
-      </c>
-      <c r="I144" t="n">
-        <v>4222</v>
-      </c>
-      <c r="J144" t="n">
-        <v>31092</v>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>43283</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>4222</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>31092</t>
+        </is>
       </c>
     </row>
     <row r="145">
@@ -6507,8 +7651,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D145" t="n">
-        <v>47996</v>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>47996</t>
+        </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -6523,14 +7669,20 @@
       <c r="G145" t="n">
         <v>4</v>
       </c>
-      <c r="H145" t="n">
-        <v>43896</v>
-      </c>
-      <c r="I145" t="n">
-        <v>4100</v>
-      </c>
-      <c r="J145" t="n">
-        <v>30916</v>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>43896</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>4100</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>30916</t>
+        </is>
       </c>
     </row>
   </sheetData>
